--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Klb</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Klb</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H2">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I2">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4450793333333333</v>
+        <v>0.234852</v>
       </c>
       <c r="N2">
-        <v>1.335238</v>
+        <v>0.704556</v>
       </c>
       <c r="O2">
-        <v>0.1947760882687507</v>
+        <v>0.1380355603847291</v>
       </c>
       <c r="P2">
-        <v>0.1947760882687507</v>
+        <v>0.1380355603847291</v>
       </c>
       <c r="Q2">
-        <v>0.02966453756666667</v>
+        <v>0.000138640964</v>
       </c>
       <c r="R2">
-        <v>0.2669808381</v>
+        <v>0.001247768676</v>
       </c>
       <c r="S2">
-        <v>0.1405902909215299</v>
+        <v>0.1380355603847291</v>
       </c>
       <c r="T2">
-        <v>0.1405902909215299</v>
+        <v>0.1380355603847291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H3">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I3">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.997081</v>
       </c>
       <c r="O3">
-        <v>0.4371952516364839</v>
+        <v>0.5871836381400829</v>
       </c>
       <c r="P3">
-        <v>0.4371952516364839</v>
+        <v>0.5871836381400829</v>
       </c>
       <c r="Q3">
-        <v>0.06658514955</v>
+        <v>0.0005897589389999999</v>
       </c>
       <c r="R3">
-        <v>0.5992663459499999</v>
+        <v>0.005307830450999999</v>
       </c>
       <c r="S3">
-        <v>0.3155695761395271</v>
+        <v>0.5871836381400829</v>
       </c>
       <c r="T3">
-        <v>0.3155695761395271</v>
+        <v>0.5871836381400829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H4">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I4">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8409756666666667</v>
+        <v>0.4675086666666666</v>
       </c>
       <c r="N4">
-        <v>2.522927</v>
+        <v>1.402526</v>
       </c>
       <c r="O4">
-        <v>0.3680286600947654</v>
+        <v>0.274780801475188</v>
       </c>
       <c r="P4">
-        <v>0.3680286600947654</v>
+        <v>0.274780801475188</v>
       </c>
       <c r="Q4">
-        <v>0.05605102818333334</v>
+        <v>0.0002759859495555555</v>
       </c>
       <c r="R4">
-        <v>0.50445925365</v>
+        <v>0.002483873546</v>
       </c>
       <c r="S4">
-        <v>0.2656448070709362</v>
+        <v>0.274780801475188</v>
       </c>
       <c r="T4">
-        <v>0.2656448070709362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.025688</v>
-      </c>
-      <c r="H5">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J5">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.4450793333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.335238</v>
-      </c>
-      <c r="O5">
-        <v>0.1947760882687507</v>
-      </c>
-      <c r="P5">
-        <v>0.1947760882687507</v>
-      </c>
-      <c r="Q5">
-        <v>0.01143319791466667</v>
-      </c>
-      <c r="R5">
-        <v>0.102898781232</v>
-      </c>
-      <c r="S5">
-        <v>0.05418579734722073</v>
-      </c>
-      <c r="T5">
-        <v>0.05418579734722073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.025688</v>
-      </c>
-      <c r="H6">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J6">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.9990269999999999</v>
-      </c>
-      <c r="N6">
-        <v>2.997081</v>
-      </c>
-      <c r="O6">
-        <v>0.4371952516364839</v>
-      </c>
-      <c r="P6">
-        <v>0.4371952516364839</v>
-      </c>
-      <c r="Q6">
-        <v>0.025663005576</v>
-      </c>
-      <c r="R6">
-        <v>0.230967050184</v>
-      </c>
-      <c r="S6">
-        <v>0.1216256754969568</v>
-      </c>
-      <c r="T6">
-        <v>0.1216256754969568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.025688</v>
-      </c>
-      <c r="H7">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J7">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.8409756666666667</v>
-      </c>
-      <c r="N7">
-        <v>2.522927</v>
-      </c>
-      <c r="O7">
-        <v>0.3680286600947654</v>
-      </c>
-      <c r="P7">
-        <v>0.3680286600947654</v>
-      </c>
-      <c r="Q7">
-        <v>0.02160298292533333</v>
-      </c>
-      <c r="R7">
-        <v>0.194426846328</v>
-      </c>
-      <c r="S7">
-        <v>0.1023838530238291</v>
-      </c>
-      <c r="T7">
-        <v>0.1023838530238291</v>
+        <v>0.274780801475188</v>
       </c>
     </row>
   </sheetData>
